--- a/output/1Y_P47_1VAL-D.xlsx
+++ b/output/1Y_P47_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G2" s="1">
-        <v>522.4797</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1178</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.1395</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1178</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>20.979</v>
       </c>
+      <c r="E3" s="1">
+        <v>522.4797</v>
+      </c>
       <c r="F3" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G3" s="1">
-        <v>999.1468</v>
-      </c>
       <c r="H3" s="1">
-        <v>20852.4941</v>
+        <v>10904.3078</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>20.0171</v>
+        <v>10904.3078</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.1395</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20852.4941</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0453</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E4" s="1">
+        <v>999.1468</v>
+      </c>
       <c r="F4" s="1">
         <v>446.606</v>
       </c>
-      <c r="G4" s="1">
-        <v>1445.7528</v>
-      </c>
       <c r="H4" s="1">
-        <v>32204.2893</v>
+        <v>22256.0956</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.7504</v>
+        <v>22256.0956</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>20.0171</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32204.2893</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0438</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E5" s="1">
+        <v>1445.7528</v>
+      </c>
       <c r="F5" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G5" s="1">
-        <v>1875.7993</v>
-      </c>
       <c r="H5" s="1">
-        <v>43392.3033</v>
+        <v>33444.1669</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>21.3242</v>
+        <v>33444.1669</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>20.7504</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43392.3033</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0281</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>22.965</v>
       </c>
+      <c r="E6" s="1">
+        <v>1875.7993</v>
+      </c>
       <c r="F6" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G6" s="1">
-        <v>2311.2446</v>
-      </c>
       <c r="H6" s="1">
-        <v>52802.4626</v>
+        <v>42854.3241</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.6334</v>
+        <v>42854.3241</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>21.3242</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52802.4626</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.011</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E7" s="1">
+        <v>2311.2446</v>
+      </c>
       <c r="F7" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G7" s="1">
-        <v>2812.076</v>
-      </c>
       <c r="H7" s="1">
-        <v>55857.1084</v>
+        <v>45908.9445</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.3366</v>
+        <v>45908.9445</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.6334</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55857.1084</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.1106</v>
+        <v>-0.1314</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E8" s="1">
+        <v>2812.076</v>
+      </c>
       <c r="F8" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G8" s="1">
-        <v>3360.1984</v>
-      </c>
       <c r="H8" s="1">
-        <v>60985.9203</v>
+        <v>51037.7726</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.8321</v>
+        <v>51037.7726</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.3366</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>60985.9203</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.074</v>
+        <v>-0.0871</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E9" s="1">
+        <v>3360.1984</v>
+      </c>
       <c r="F9" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G9" s="1">
-        <v>4058.3907</v>
-      </c>
       <c r="H9" s="1">
-        <v>57825.5747</v>
+        <v>47877.4504</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.7122</v>
+        <v>47877.4504</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20.8321</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>6048.3571</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3951.6429</v>
+        <v>5061.7367</v>
       </c>
       <c r="O9" s="1">
-        <v>6048.3571</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>63873.9318</v>
+        <v>-4938.2633</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1002</v>
+        <v>-0.2156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E10" s="1">
+        <v>4058.3907</v>
+      </c>
       <c r="F10" s="1">
-        <v>731.2374</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4789.6281</v>
+        <v>715.5701</v>
       </c>
       <c r="H10" s="1">
-        <v>75013.7187</v>
+        <v>63561.2984</v>
       </c>
       <c r="I10" s="1">
-        <v>91512.08930000001</v>
+        <v>5061.7367</v>
       </c>
       <c r="J10" s="1">
-        <v>19.1063</v>
+        <v>68623.03509999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81265.4342</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.0241</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11512.0893</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>4536.2678</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79549.9865</v>
+        <v>-11265.4342</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07679999999999999</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E11" s="1">
+        <v>4773.9608</v>
+      </c>
       <c r="F11" s="1">
-        <v>710.9124</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5500.5405</v>
+        <v>695.6806</v>
       </c>
       <c r="H11" s="1">
-        <v>88610.4078</v>
+        <v>76905.6443</v>
       </c>
       <c r="I11" s="1">
-        <v>103024.1785</v>
+        <v>3796.3025</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7298</v>
+        <v>80701.94680000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92530.86840000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.3824</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11512.0893</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>3024.1785</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>91634.5863</v>
+        <v>-11265.4342</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0233</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E12" s="1">
+        <v>5469.6414</v>
+      </c>
       <c r="F12" s="1">
-        <v>756.2896</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6256.8302</v>
+        <v>740.0855</v>
       </c>
       <c r="H12" s="1">
-        <v>94746.5534</v>
+        <v>82826.2329</v>
       </c>
       <c r="I12" s="1">
-        <v>114536.2678</v>
+        <v>2530.8684</v>
       </c>
       <c r="J12" s="1">
-        <v>18.3058</v>
+        <v>85357.1012</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103796.3025</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.9768</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11512.0893</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1512.0893</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>96258.64260000001</v>
+        <v>-11265.4342</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0529</v>
+        <v>-0.0589</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E13" s="1">
+        <v>6209.727</v>
+      </c>
       <c r="F13" s="1">
-        <v>818.1895</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7075.0196</v>
+        <v>800.6591</v>
       </c>
       <c r="H13" s="1">
-        <v>99031.17200000001</v>
+        <v>86919.4111</v>
       </c>
       <c r="I13" s="1">
-        <v>126048.3571</v>
+        <v>1265.4342</v>
       </c>
       <c r="J13" s="1">
-        <v>17.816</v>
+        <v>88184.8453</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115061.7367</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5293</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11512.0893</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>99031.17200000001</v>
+        <v>-11265.4342</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.068</v>
+        <v>-0.0752</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E14" s="1">
+        <v>7010.3861</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7075.0196</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6209.727</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96573.6767</v>
       </c>
       <c r="I14" s="1">
-        <v>126048.3571</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.816</v>
+        <v>96573.6767</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115061.7367</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.413</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97464.0552</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97464.0552</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97464.0552</v>
+        <v>85543.9566</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1061</v>
+        <v>-0.0164</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>19.1395</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>522.4797</v>
       </c>
       <c r="G2" s="1">
-        <v>522.4797</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1178</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.1395</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1178</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>20.979</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>522.4797</v>
       </c>
       <c r="F3" s="1">
         <v>435.8199</v>
       </c>
       <c r="G3" s="1">
-        <v>958.2996000000001</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10904.3078</v>
       </c>
       <c r="I3" s="1">
-        <v>19143.0658</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.9761</v>
+        <v>10904.3078</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9143.0658</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4994</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9143.0658</v>
       </c>
-      <c r="O3" s="1">
-        <v>856.9342</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20856.9342</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0456</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>22.3911</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>958.2996000000001</v>
       </c>
       <c r="F4" s="1">
         <v>388.4957</v>
       </c>
       <c r="G4" s="1">
-        <v>1346.7953</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21346.2193</v>
       </c>
       <c r="I4" s="1">
-        <v>27841.912</v>
+        <v>856.9342</v>
       </c>
       <c r="J4" s="1">
-        <v>20.6727</v>
+        <v>22203.1535</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17841.912</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.6183</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8698.8462</v>
       </c>
-      <c r="O4" s="1">
-        <v>2158.088</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32158.088</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0422</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>23.2533</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1346.7953</v>
       </c>
       <c r="F5" s="1">
         <v>382.3587</v>
       </c>
       <c r="G5" s="1">
-        <v>1729.154</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31155.0116</v>
       </c>
       <c r="I5" s="1">
-        <v>36733.0128</v>
+        <v>2158.088</v>
       </c>
       <c r="J5" s="1">
-        <v>21.2433</v>
+        <v>33313.0996</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26733.0128</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>19.8494</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8891.1008</v>
       </c>
-      <c r="O5" s="1">
-        <v>3266.9872</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43266.9872</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0263</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>22.965</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1729.154</v>
       </c>
       <c r="F6" s="1">
         <v>459.4225</v>
       </c>
       <c r="G6" s="1">
-        <v>2188.5765</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39504.0786</v>
       </c>
       <c r="I6" s="1">
-        <v>47283.6514</v>
+        <v>3266.9872</v>
       </c>
       <c r="J6" s="1">
-        <v>21.6048</v>
+        <v>42771.0658</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37283.6514</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>21.5618</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10550.6386</v>
       </c>
-      <c r="O6" s="1">
-        <v>2716.3486</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52716.3486</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0103</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>19.9668</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2188.5765</v>
       </c>
       <c r="F7" s="1">
         <v>636.8746</v>
       </c>
       <c r="G7" s="1">
-        <v>2825.4511</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>56122.7838</v>
+        <v>43472.3517</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>2716.3486</v>
       </c>
       <c r="J7" s="1">
-        <v>21.2355</v>
+        <v>46188.7003</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>22.8459</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12716.3486</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56122.7838</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.1051</v>
+        <v>-0.1247</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.2441</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2825.4511</v>
       </c>
       <c r="F8" s="1">
         <v>548.1224</v>
       </c>
       <c r="G8" s="1">
-        <v>3373.5736</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61228.6732</v>
+        <v>51280.5256</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7495</v>
+        <v>51280.5256</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.2355</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>61228.6732</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.074</v>
+        <v>-0.08740000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.3227</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3373.5736</v>
       </c>
       <c r="F9" s="1">
         <v>698.1924</v>
       </c>
       <c r="G9" s="1">
-        <v>4071.7659</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>58016.1497</v>
+        <v>48068.0254</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.6475</v>
+        <v>48068.0254</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20.7495</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>6072.4324</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3927.5676</v>
+        <v>5085.8121</v>
       </c>
       <c r="O9" s="1">
-        <v>6072.4324</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>64088.5821</v>
+        <v>-4914.1879</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1002</v>
+        <v>-0.2156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.7433</v>
       </c>
       <c r="E10" s="1">
+        <v>4071.7659</v>
+      </c>
+      <c r="F10" s="1">
+        <v>958.237</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>1020.9062</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5092.6721</v>
-      </c>
       <c r="H10" s="1">
-        <v>79759.90300000001</v>
+        <v>63770.7765</v>
       </c>
       <c r="I10" s="1">
-        <v>96072.43240000001</v>
+        <v>5085.8121</v>
       </c>
       <c r="J10" s="1">
-        <v>18.8648</v>
+        <v>68856.5886</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>85085.8121</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.8965</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-16072.4324</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79759.90300000001</v>
+        <v>-15085.8121</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0765</v>
+        <v>0.1858</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.1934</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5030.0029</v>
       </c>
       <c r="F11" s="1">
         <v>617.5355</v>
       </c>
       <c r="G11" s="1">
-        <v>5710.2077</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91988.0193</v>
+        <v>81030.3288</v>
       </c>
       <c r="I11" s="1">
-        <v>106072.4324</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.5759</v>
+        <v>81030.3288</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95085.8121</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.9037</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91988.0193</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0248</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5647.5384</v>
       </c>
       <c r="F12" s="1">
         <v>656.9525</v>
       </c>
       <c r="G12" s="1">
-        <v>6367.1602</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>96417.27009999999</v>
+        <v>85520.1099</v>
       </c>
       <c r="I12" s="1">
-        <v>116072.4324</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2299</v>
+        <v>85520.1099</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105085.8121</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.6074</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>96417.27009999999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0546</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.0702</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6304.491</v>
       </c>
       <c r="F13" s="1">
         <v>710.722</v>
       </c>
       <c r="G13" s="1">
-        <v>7077.8821</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>99071.23970000001</v>
+        <v>88245.8515</v>
       </c>
       <c r="I13" s="1">
-        <v>126072.4324</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8122</v>
+        <v>88245.8515</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115085.8121</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2546</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99071.23970000001</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06900000000000001</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>13.8476</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7015.2129</v>
       </c>
       <c r="F14" s="1">
-        <v>-7077.8821</v>
+        <v>-7015.2129</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96640.17019999999</v>
       </c>
       <c r="I14" s="1">
-        <v>126072.4324</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8122</v>
+        <v>96640.17019999999</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115085.8121</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.4052</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97503.48880000001</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97503.48880000001</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97503.48880000001</v>
+        <v>96640.17019999999</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1061</v>
+        <v>-0.0163</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>19.1395</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>522.4797</v>
       </c>
       <c r="G2" s="1">
-        <v>522.4797</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1178</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.1395</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1178</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>20.979</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>522.4797</v>
       </c>
       <c r="F3" s="1">
         <v>438.2157</v>
       </c>
       <c r="G3" s="1">
-        <v>960.6953</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10904.3078</v>
       </c>
       <c r="I3" s="1">
-        <v>19193.3262</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.9786</v>
+        <v>10904.3078</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9193.3262</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.5956</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9193.3262</v>
       </c>
-      <c r="O3" s="1">
-        <v>806.6738</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20856.6738</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0455</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>22.3911</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>960.6953</v>
       </c>
       <c r="F4" s="1">
         <v>392.8452</v>
       </c>
       <c r="G4" s="1">
-        <v>1353.5405</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21399.5848</v>
       </c>
       <c r="I4" s="1">
-        <v>27989.5614</v>
+        <v>806.6738</v>
       </c>
       <c r="J4" s="1">
-        <v>20.6788</v>
+        <v>22206.2586</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17989.5614</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.7256</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8796.235199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>2010.4386</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32160.6886</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0423</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>23.2533</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1353.5405</v>
       </c>
       <c r="F5" s="1">
         <v>388.6254</v>
       </c>
       <c r="G5" s="1">
-        <v>1742.1659</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31311.0463</v>
       </c>
       <c r="I5" s="1">
-        <v>37026.3846</v>
+        <v>2010.4386</v>
       </c>
       <c r="J5" s="1">
-        <v>21.2531</v>
+        <v>33321.4849</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27026.3846</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>19.9672</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9036.8231</v>
       </c>
-      <c r="O5" s="1">
-        <v>2973.6154</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43274.6167</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0264</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>22.965</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1742.1659</v>
       </c>
       <c r="F6" s="1">
         <v>468.4061</v>
       </c>
       <c r="G6" s="1">
-        <v>2210.572</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>39801.3481</v>
       </c>
       <c r="I6" s="1">
-        <v>47783.3299</v>
+        <v>2973.6154</v>
       </c>
       <c r="J6" s="1">
-        <v>21.6158</v>
+        <v>42774.9635</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37783.3299</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>21.6876</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10756.9454</v>
       </c>
-      <c r="O6" s="1">
-        <v>2216.6701</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52719.1763</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0104</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>19.9668</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2210.572</v>
       </c>
       <c r="F7" s="1">
         <v>611.8492</v>
       </c>
       <c r="G7" s="1">
-        <v>2822.4211</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>56062.598</v>
+        <v>43909.2543</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>2216.6701</v>
       </c>
       <c r="J7" s="1">
-        <v>21.2583</v>
+        <v>46125.9244</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>22.6186</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12216.6701</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56062.598</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.1061</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.2441</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2822.4211</v>
       </c>
       <c r="F8" s="1">
         <v>548.1224</v>
       </c>
       <c r="G8" s="1">
-        <v>3370.5436</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61173.6802</v>
+        <v>51225.5326</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7682</v>
+        <v>51225.5326</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.2583</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>61173.6802</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.074</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.3227</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3370.5436</v>
       </c>
       <c r="F9" s="1">
         <v>698.1924</v>
       </c>
       <c r="G9" s="1">
-        <v>4068.7359</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>57972.9771</v>
+        <v>48024.8528</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.6621</v>
+        <v>48024.8528</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20.7682</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>6066.9784</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3933.0216</v>
+        <v>5080.3581</v>
       </c>
       <c r="O9" s="1">
-        <v>6066.9784</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>64039.9555</v>
+        <v>-4919.6419</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1002</v>
+        <v>-0.2156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.7433</v>
       </c>
       <c r="E10" s="1">
+        <v>4068.7359</v>
+      </c>
+      <c r="F10" s="1">
+        <v>957.8905</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>1020.5598</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5089.2957</v>
-      </c>
       <c r="H10" s="1">
-        <v>79707.0223</v>
+        <v>63723.3216</v>
       </c>
       <c r="I10" s="1">
-        <v>96066.97840000001</v>
+        <v>5080.3581</v>
       </c>
       <c r="J10" s="1">
-        <v>18.8763</v>
+        <v>68803.67969999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>85080.3581</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.9108</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-16066.9784</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79707.0223</v>
+        <v>-15080.3581</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0765</v>
+        <v>0.1858</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.1934</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5026.6265</v>
       </c>
       <c r="F11" s="1">
         <v>617.5355</v>
       </c>
       <c r="G11" s="1">
-        <v>5706.8312</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91933.62699999999</v>
+        <v>80975.9365</v>
       </c>
       <c r="I11" s="1">
-        <v>106066.9784</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.586</v>
+        <v>80975.9365</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95080.3581</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.9153</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91933.62699999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0248</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5644.162</v>
       </c>
       <c r="F12" s="1">
         <v>656.9525</v>
       </c>
       <c r="G12" s="1">
-        <v>6363.7838</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>96366.14109999999</v>
+        <v>85468.9809</v>
       </c>
       <c r="I12" s="1">
-        <v>116066.9784</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2387</v>
+        <v>85468.9809</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105080.3581</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.6175</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>96366.14109999999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0546</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.0702</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6301.1145</v>
       </c>
       <c r="F13" s="1">
         <v>710.722</v>
       </c>
       <c r="G13" s="1">
-        <v>7074.5057</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>99023.9788</v>
+        <v>88198.59050000001</v>
       </c>
       <c r="I13" s="1">
-        <v>126066.9784</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8199</v>
+        <v>88198.59050000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115080.3581</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2635</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99023.9788</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06900000000000001</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>13.8476</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7011.8365</v>
       </c>
       <c r="F14" s="1">
-        <v>-7074.5057</v>
+        <v>-7011.8365</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96593.6571</v>
       </c>
       <c r="I14" s="1">
-        <v>126066.9784</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8199</v>
+        <v>96593.6571</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115080.3581</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.4123</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97456.9757</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97456.9757</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97456.9757</v>
+        <v>96593.6571</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1061</v>
+        <v>-0.0163</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>19.1395</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>522.4797</v>
       </c>
       <c r="G2" s="1">
-        <v>522.4797</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1178</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.1395</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1178</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>20.979</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>522.4797</v>
       </c>
       <c r="F3" s="1">
         <v>440.6114</v>
       </c>
       <c r="G3" s="1">
-        <v>963.0911</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10904.3078</v>
       </c>
       <c r="I3" s="1">
-        <v>19243.5866</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.9811</v>
+        <v>10904.3078</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9243.586600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6918</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9243.586600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>756.4134</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20856.4134</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0455</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>22.3911</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>963.0911</v>
       </c>
       <c r="F4" s="1">
         <v>397.2171</v>
       </c>
       <c r="G4" s="1">
-        <v>1360.3081</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21452.9504</v>
       </c>
       <c r="I4" s="1">
-        <v>28137.7134</v>
+        <v>756.4134</v>
       </c>
       <c r="J4" s="1">
-        <v>20.6848</v>
+        <v>22209.3638</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18137.7134</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.8328</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8894.1268</v>
       </c>
-      <c r="O4" s="1">
-        <v>1862.2866</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32163.2866</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0424</v>
+        <v>0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>23.2533</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1360.3081</v>
       </c>
       <c r="F5" s="1">
         <v>394.9565</v>
       </c>
       <c r="G5" s="1">
-        <v>1755.2646</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31467.6003</v>
       </c>
       <c r="I5" s="1">
-        <v>37321.7549</v>
+        <v>1862.2866</v>
       </c>
       <c r="J5" s="1">
-        <v>21.2628</v>
+        <v>33329.8868</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27321.7549</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>20.085</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9184.041499999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2678.2451</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43282.2551</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0265</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>22.965</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1755.2646</v>
       </c>
       <c r="F6" s="1">
         <v>477.5233</v>
       </c>
       <c r="G6" s="1">
-        <v>2232.7879</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40100.6001</v>
       </c>
       <c r="I6" s="1">
-        <v>48288.0779</v>
+        <v>2678.2451</v>
       </c>
       <c r="J6" s="1">
-        <v>21.6268</v>
+        <v>42778.8452</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38288.0779</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>21.8133</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10966.323</v>
       </c>
-      <c r="O6" s="1">
-        <v>1711.9221</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52721.9722</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0105</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>19.9668</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2232.7879</v>
       </c>
       <c r="F7" s="1">
         <v>586.5698</v>
       </c>
       <c r="G7" s="1">
-        <v>2819.3578</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>56001.7489</v>
+        <v>44350.5368</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1711.9221</v>
       </c>
       <c r="J7" s="1">
-        <v>21.2814</v>
+        <v>46062.4588</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>22.3935</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11711.9221</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56001.7489</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.1071</v>
+        <v>-0.1273</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.2441</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2819.3578</v>
       </c>
       <c r="F8" s="1">
         <v>548.1224</v>
       </c>
       <c r="G8" s="1">
-        <v>3367.4802</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61118.0812</v>
+        <v>51169.9335</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7871</v>
+        <v>51169.9335</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.2814</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>61118.0812</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.074</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.3227</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3367.4802</v>
       </c>
       <c r="F9" s="1">
         <v>698.1924</v>
       </c>
       <c r="G9" s="1">
-        <v>4065.6725</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>57929.3286</v>
+        <v>47981.2043</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.6769</v>
+        <v>47981.2043</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20.7871</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>6061.4643</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3938.5357</v>
+        <v>5074.844</v>
       </c>
       <c r="O9" s="1">
-        <v>6061.4643</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>63990.7929</v>
+        <v>-4925.156</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1002</v>
+        <v>-0.2156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.7433</v>
       </c>
       <c r="E10" s="1">
+        <v>4065.6725</v>
+      </c>
+      <c r="F10" s="1">
+        <v>957.5403</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>1020.2095</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5085.882</v>
-      </c>
       <c r="H10" s="1">
-        <v>79653.5588</v>
+        <v>63675.3436</v>
       </c>
       <c r="I10" s="1">
-        <v>96061.46430000001</v>
+        <v>5074.844</v>
       </c>
       <c r="J10" s="1">
-        <v>18.8879</v>
+        <v>68750.1876</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>85074.844</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.9252</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-16061.4643</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79653.5588</v>
+        <v>-15074.844</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0765</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.1934</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5023.2128</v>
       </c>
       <c r="F11" s="1">
         <v>617.5355</v>
       </c>
       <c r="G11" s="1">
-        <v>5703.4176</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91878.6352</v>
+        <v>80920.94469999999</v>
       </c>
       <c r="I11" s="1">
-        <v>106061.4643</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.5961</v>
+        <v>80920.94469999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95074.844</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.9271</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91878.6352</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0248</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5640.7484</v>
       </c>
       <c r="F12" s="1">
         <v>656.9525</v>
       </c>
       <c r="G12" s="1">
-        <v>6360.3701</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>96314.4486</v>
+        <v>85417.2884</v>
       </c>
       <c r="I12" s="1">
-        <v>116061.4643</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2476</v>
+        <v>85417.2884</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105074.844</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.6278</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>96314.4486</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0546</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.0702</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6297.7009</v>
       </c>
       <c r="F13" s="1">
         <v>710.722</v>
       </c>
       <c r="G13" s="1">
-        <v>7071.0921</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>98976.1969</v>
+        <v>88150.80869999999</v>
       </c>
       <c r="I13" s="1">
-        <v>126061.4643</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8277</v>
+        <v>88150.80869999999</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115074.844</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2725</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>98976.1969</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06900000000000001</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>13.8476</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7008.4228</v>
       </c>
       <c r="F14" s="1">
-        <v>-7071.0921</v>
+        <v>-7008.4228</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96546.6314</v>
       </c>
       <c r="I14" s="1">
-        <v>126061.4643</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8277</v>
+        <v>96546.6314</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115074.844</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.4195</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97409.9501</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97409.9501</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97409.9501</v>
+        <v>96546.6314</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1061</v>
+        <v>-0.0163</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>19.1395</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>522.4797</v>
       </c>
       <c r="G2" s="1">
-        <v>522.4797</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1178</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.1395</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1178</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>20.979</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>522.4797</v>
       </c>
       <c r="F3" s="1">
         <v>443.0072</v>
       </c>
       <c r="G3" s="1">
-        <v>965.4868</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10904.3078</v>
       </c>
       <c r="I3" s="1">
-        <v>19293.847</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.9835</v>
+        <v>10904.3078</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9293.847</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.788</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9293.847</v>
       </c>
-      <c r="O3" s="1">
-        <v>706.153</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20856.153</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0455</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>22.3911</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>965.4868</v>
       </c>
       <c r="F4" s="1">
         <v>401.6114</v>
       </c>
       <c r="G4" s="1">
-        <v>1367.0982</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21506.3159</v>
       </c>
       <c r="I4" s="1">
-        <v>28286.368</v>
+        <v>706.153</v>
       </c>
       <c r="J4" s="1">
-        <v>20.6908</v>
+        <v>22212.4689</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18286.368</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.94</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8992.521000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1713.632</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32165.882</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0424</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>23.2533</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1367.0982</v>
       </c>
       <c r="F5" s="1">
         <v>401.3522</v>
       </c>
       <c r="G5" s="1">
-        <v>1768.4505</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31624.6735</v>
       </c>
       <c r="I5" s="1">
-        <v>37619.1314</v>
+        <v>1713.632</v>
       </c>
       <c r="J5" s="1">
-        <v>21.2724</v>
+        <v>33338.3054</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27619.1314</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>20.2027</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9332.7634</v>
       </c>
-      <c r="O5" s="1">
-        <v>2380.8686</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43289.9023</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0267</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>22.965</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1768.4505</v>
       </c>
       <c r="F6" s="1">
         <v>486.7756</v>
       </c>
       <c r="G6" s="1">
-        <v>2255.2261</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>40401.8422</v>
       </c>
       <c r="I6" s="1">
-        <v>48797.9335</v>
+        <v>2380.8686</v>
       </c>
       <c r="J6" s="1">
-        <v>21.6377</v>
+        <v>42782.7107</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38797.9335</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>21.9389</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11178.8021</v>
       </c>
-      <c r="O6" s="1">
-        <v>1202.0665</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52724.7358</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0106</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>19.9668</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2255.2261</v>
       </c>
       <c r="F7" s="1">
         <v>561.0346</v>
       </c>
       <c r="G7" s="1">
-        <v>2816.2607</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55940.2314</v>
+        <v>44796.232</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1202.0665</v>
       </c>
       <c r="J7" s="1">
-        <v>21.3048</v>
+        <v>45998.2985</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>22.1707</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11202.0665</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55940.2314</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.1082</v>
+        <v>-0.1285</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.2441</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2816.2607</v>
       </c>
       <c r="F8" s="1">
         <v>548.1224</v>
       </c>
       <c r="G8" s="1">
-        <v>3364.3831</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61061.8714</v>
+        <v>51113.7238</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.8062</v>
+        <v>51113.7238</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.3048</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>61061.8714</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.074</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.3227</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3364.3831</v>
       </c>
       <c r="F9" s="1">
         <v>698.1924</v>
       </c>
       <c r="G9" s="1">
-        <v>4062.5755</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>57885.2007</v>
+        <v>47937.0764</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.6919</v>
+        <v>47937.0764</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20.8062</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>6055.8896</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3944.1104</v>
+        <v>5069.2693</v>
       </c>
       <c r="O9" s="1">
-        <v>6055.8896</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>63941.0904</v>
+        <v>-4930.7307</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1002</v>
+        <v>-0.2156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.7433</v>
       </c>
       <c r="E10" s="1">
+        <v>4062.5755</v>
+      </c>
+      <c r="F10" s="1">
+        <v>957.1862</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>1019.8554</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5082.4309</v>
-      </c>
       <c r="H10" s="1">
-        <v>79599.50810000001</v>
+        <v>63626.8387</v>
       </c>
       <c r="I10" s="1">
-        <v>96055.88959999999</v>
+        <v>5069.2693</v>
       </c>
       <c r="J10" s="1">
-        <v>18.8996</v>
+        <v>68696.10799999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>85069.2693</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.9397</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-16055.8896</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79599.50810000001</v>
+        <v>-15069.2693</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0765</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.1934</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5019.7617</v>
       </c>
       <c r="F11" s="1">
         <v>617.5355</v>
       </c>
       <c r="G11" s="1">
-        <v>5699.9664</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91823.03939999999</v>
+        <v>80865.3489</v>
       </c>
       <c r="I11" s="1">
-        <v>106055.8896</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.6064</v>
+        <v>80865.3489</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95069.2693</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.939</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91823.03939999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0248</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5637.2972</v>
       </c>
       <c r="F12" s="1">
         <v>656.9525</v>
       </c>
       <c r="G12" s="1">
-        <v>6356.919</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>96262.18829999999</v>
+        <v>85365.0281</v>
       </c>
       <c r="I12" s="1">
-        <v>116055.8896</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2566</v>
+        <v>85365.0281</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105069.2693</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.6382</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>96262.18829999999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0546</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.0702</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6294.2498</v>
       </c>
       <c r="F13" s="1">
         <v>710.722</v>
       </c>
       <c r="G13" s="1">
-        <v>7067.6409</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>98927.8903</v>
+        <v>88102.5021</v>
       </c>
       <c r="I13" s="1">
-        <v>126055.8896</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8356</v>
+        <v>88102.5021</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115069.2693</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2816</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>98927.8903</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06900000000000001</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.8476</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7004.9717</v>
       </c>
       <c r="F14" s="1">
-        <v>-7067.6409</v>
+        <v>-7004.9717</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96499.0892</v>
       </c>
       <c r="I14" s="1">
-        <v>126055.8896</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8356</v>
+        <v>96499.0892</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115069.2693</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.4268</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97362.4078</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97362.4078</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97362.4078</v>
+        <v>96499.0892</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1062</v>
+        <v>-0.0163</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.8103</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.816</v>
+        <v>16.413</v>
       </c>
       <c r="D3" s="1">
-        <v>17.8122</v>
+        <v>16.4052</v>
       </c>
       <c r="E3" s="1">
-        <v>17.8199</v>
+        <v>16.4123</v>
       </c>
       <c r="F3" s="1">
-        <v>17.8277</v>
+        <v>16.4195</v>
       </c>
       <c r="G3" s="1">
-        <v>17.8356</v>
+        <v>16.4268</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.2659</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.3054</v>
+        <v>-0.1942</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.304</v>
+        <v>-0.1928</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.3049</v>
+        <v>-0.1939</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.3059</v>
+        <v>-0.1949</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.3068</v>
+        <v>-0.196</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3169</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2236</v>
+        <v>0.3559</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2214</v>
+        <v>0.3535</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2218</v>
+        <v>0.3539</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2222</v>
+        <v>0.3544</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2226</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.9033</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.4569</v>
+        <v>-0.6029</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.4653</v>
+        <v>-0.603</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.4667</v>
+        <v>-0.6052</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.4681</v>
+        <v>-0.6075</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.4694</v>
+        <v>-0.6097</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.3331</v>
+        <v>-0.4892</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.3319</v>
+        <v>-0.3433</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.3322</v>
+        <v>-0.3436</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.3325</v>
+        <v>-0.3439</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.3328</v>
+        <v>-0.3442</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6048.3571</v>
+        <v>5061.7367</v>
       </c>
       <c r="D8" s="1">
-        <v>6072.4324</v>
+        <v>5085.8121</v>
       </c>
       <c r="E8" s="1">
-        <v>6066.9784</v>
+        <v>5080.3581</v>
       </c>
       <c r="F8" s="1">
-        <v>6061.4643</v>
+        <v>5074.844</v>
       </c>
       <c r="G8" s="1">
-        <v>6055.8896</v>
+        <v>5069.2693</v>
       </c>
     </row>
   </sheetData>
